--- a/fish_family.xlsx
+++ b/fish_family.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\Repos\FishNET\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mleup\Documents\GitHub Repositories\FishNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB78F7FB-F449-4034-B0BF-81FD4FFBE16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D976F89D-F0BD-479A-8AAA-D3E508314503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43BBAEFF-8756-4654-95A3-05B763BFB039}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43BBAEFF-8756-4654-95A3-05B763BFB039}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,51 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
-    <t>Anguillidae</t>
-  </si>
-  <si>
-    <t>Blenniidae</t>
-  </si>
-  <si>
-    <t>Clupeidae</t>
-  </si>
-  <si>
-    <t>Cobitidae</t>
-  </si>
-  <si>
-    <t>Coregonidae</t>
-  </si>
-  <si>
-    <t>Cottidae</t>
-  </si>
-  <si>
-    <t>Esocidae</t>
-  </si>
-  <si>
-    <t>Gasterosteidae</t>
-  </si>
-  <si>
-    <t>Gobiidae</t>
-  </si>
-  <si>
-    <t>Lotidae</t>
-  </si>
-  <si>
-    <t>Nemacheilidae</t>
-  </si>
-  <si>
-    <t>Percidae</t>
-  </si>
-  <si>
-    <t>Petromyzontidae</t>
-  </si>
-  <si>
-    <t>Siluridae</t>
-  </si>
-  <si>
-    <t>Thymallidae</t>
-  </si>
-  <si>
     <t>Aale</t>
   </si>
   <si>
@@ -135,28 +90,73 @@
     <t>Äschen</t>
   </si>
   <si>
-    <t>Cyprinidae_1</t>
-  </si>
-  <si>
-    <t>Cyprinidae_2</t>
-  </si>
-  <si>
-    <t>Cyprinidae_3</t>
-  </si>
-  <si>
-    <t>Cyprinidae_4</t>
-  </si>
-  <si>
-    <t>Salmonidae (Salmo)</t>
-  </si>
-  <si>
-    <t>Salmonidae (Salvelinus)</t>
-  </si>
-  <si>
     <t>fam_name</t>
   </si>
   <si>
     <t>name_ge</t>
+  </si>
+  <si>
+    <t>anguillidae</t>
+  </si>
+  <si>
+    <t>blenniidae</t>
+  </si>
+  <si>
+    <t>Cclupeidae</t>
+  </si>
+  <si>
+    <t>cobitidae</t>
+  </si>
+  <si>
+    <t>coregonidae</t>
+  </si>
+  <si>
+    <t>cottidae</t>
+  </si>
+  <si>
+    <t>cyprinidae_1</t>
+  </si>
+  <si>
+    <t>cyprinidae_2</t>
+  </si>
+  <si>
+    <t>cyprinidae_3</t>
+  </si>
+  <si>
+    <t>cyprinidae_4</t>
+  </si>
+  <si>
+    <t>esocidae</t>
+  </si>
+  <si>
+    <t>gasterosteidae</t>
+  </si>
+  <si>
+    <t>gobiidae</t>
+  </si>
+  <si>
+    <t>lotidae</t>
+  </si>
+  <si>
+    <t>nemacheilidae</t>
+  </si>
+  <si>
+    <t>percidae</t>
+  </si>
+  <si>
+    <t>petromyzontidae</t>
+  </si>
+  <si>
+    <t>siluridae</t>
+  </si>
+  <si>
+    <t>thymallidae</t>
+  </si>
+  <si>
+    <t>salmonidae_salmo</t>
+  </si>
+  <si>
+    <t>salmonidae_salvelinus</t>
   </si>
 </sst>
 </file>
@@ -511,189 +511,189 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -702,6 +702,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010099759CD0201CCF408AC8E603CED11783" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="52f836c5d0e2be4dbf248a4bc90e64cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b0c91c8-4ad5-4ea9-bd40-f52733055796" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dd7a8358460b2ade4c46e0fe4883cde" ns2:_="">
     <xsd:import namespace="6b0c91c8-4ad5-4ea9-bd40-f52733055796"/>
@@ -833,22 +848,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659B2DFE-CE4A-4A3E-A8DD-8875DE2A65F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B284783D-21D9-4A29-A27D-C067843B9AE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E959EFC7-0F8D-44A7-AEE1-4EA54F7E637E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -864,21 +881,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B284783D-21D9-4A29-A27D-C067843B9AE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659B2DFE-CE4A-4A3E-A8DD-8875DE2A65F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/fish_family.xlsx
+++ b/fish_family.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mleup\Documents\GitHub Repositories\FishNET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\Repos\Test\gefaehrdete_fische_ch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D976F89D-F0BD-479A-8AAA-D3E508314503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41185B98-157E-433E-BE0E-87F9163FE445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43BBAEFF-8756-4654-95A3-05B763BFB039}"/>
+    <workbookView xWindow="29805" yWindow="2310" windowWidth="27330" windowHeight="14730" xr2:uid="{43BBAEFF-8756-4654-95A3-05B763BFB039}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>blenniidae</t>
   </si>
   <si>
-    <t>Cclupeidae</t>
-  </si>
-  <si>
     <t>cobitidae</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>salmonidae_salvelinus</t>
+  </si>
+  <si>
+    <t>clupeidae</t>
   </si>
 </sst>
 </file>
@@ -511,16 +511,16 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -528,7 +528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -544,153 +544,153 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -702,21 +702,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010099759CD0201CCF408AC8E603CED11783" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="52f836c5d0e2be4dbf248a4bc90e64cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6b0c91c8-4ad5-4ea9-bd40-f52733055796" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3dd7a8358460b2ade4c46e0fe4883cde" ns2:_="">
     <xsd:import namespace="6b0c91c8-4ad5-4ea9-bd40-f52733055796"/>
@@ -848,24 +833,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659B2DFE-CE4A-4A3E-A8DD-8875DE2A65F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B284783D-21D9-4A29-A27D-C067843B9AE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E959EFC7-0F8D-44A7-AEE1-4EA54F7E637E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -881,4 +864,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B284783D-21D9-4A29-A27D-C067843B9AE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659B2DFE-CE4A-4A3E-A8DD-8875DE2A65F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>